--- a/dittmar_STATUS_SUMMARY.xlsx
+++ b/dittmar_STATUS_SUMMARY.xlsx
@@ -237,8 +237,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +541,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -858,11 +858,11 @@
       <c r="A26" s="10">
         <v>10</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>1</v>
+      <c r="C26" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -915,16 +915,16 @@
       <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>10.5</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="9"/>
+      <c r="C31" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickTop="1"/>
   </sheetData>

--- a/dittmar_STATUS_SUMMARY.xlsx
+++ b/dittmar_STATUS_SUMMARY.xlsx
@@ -541,7 +541,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G22" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -639,16 +639,16 @@
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="9"/>
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
       <c r="A9" s="5">
@@ -663,16 +663,16 @@
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>4.2</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="9"/>
+      <c r="C10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
       <c r="A11" s="5">
@@ -759,16 +759,16 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>6</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9"/>
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
       <c r="A19" s="5">

--- a/dittmar_STATUS_SUMMARY.xlsx
+++ b/dittmar_STATUS_SUMMARY.xlsx
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G21:G22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -831,16 +831,16 @@
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>9.1</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9"/>
+      <c r="C24" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
       <c r="A25" s="4">

--- a/dittmar_STATUS_SUMMARY.xlsx
+++ b/dittmar_STATUS_SUMMARY.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>In-Progress</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Castling move has been made unavailable due to rule changes.</t>
   </si>
@@ -124,6 +118,24 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>AI does not reveal pieces</t>
+  </si>
+  <si>
+    <t>See comments for section 9.</t>
+  </si>
+  <si>
+    <t>Not tested yet.</t>
+  </si>
+  <si>
+    <t>Memory not implemented yet.</t>
   </si>
 </sst>
 </file>
@@ -540,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,21 +561,21 @@
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" thickTop="1" thickBot="1">
       <c r="A1" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
@@ -571,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -583,10 +595,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -595,10 +607,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -607,10 +619,10 @@
         <v>3.1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -619,10 +631,10 @@
         <v>3.2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -631,10 +643,10 @@
         <v>3.3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -643,10 +655,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -655,10 +667,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -667,10 +679,10 @@
         <v>4.2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -679,10 +691,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -691,10 +703,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -703,10 +715,10 @@
         <v>5.2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -715,10 +727,10 @@
         <v>5.3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -727,10 +739,10 @@
         <v>5.4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -739,10 +751,10 @@
         <v>5.5</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -751,10 +763,10 @@
         <v>5.6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -763,10 +775,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -775,10 +787,10 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -787,58 +799,66 @@
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
       <c r="A21" s="4">
         <v>8.1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
       <c r="A22" s="4">
         <v>8.1999999999999993</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
       <c r="A23" s="4">
         <v>9</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
       <c r="A24" s="5">
         <v>9.1</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -847,22 +867,24 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" ht="21.75" thickTop="1" thickBot="1">
       <c r="A26" s="10">
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D26" s="11"/>
     </row>
@@ -871,10 +893,10 @@
         <v>10.1</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -883,10 +905,10 @@
         <v>10.199999999999999</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -895,10 +917,10 @@
         <v>10.3</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D29" s="6"/>
     </row>
@@ -907,10 +929,10 @@
         <v>10.4</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D30" s="6"/>
     </row>
@@ -919,10 +941,10 @@
         <v>10.5</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D31" s="6"/>
     </row>

--- a/dittmar_STATUS_SUMMARY.xlsx
+++ b/dittmar_STATUS_SUMMARY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>Castling move has been made unavailable due to rule changes.</t>
   </si>
@@ -123,19 +123,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>AI does not reveal pieces</t>
-  </si>
-  <si>
-    <t>See comments for section 9.</t>
-  </si>
-  <si>
-    <t>Not tested yet.</t>
-  </si>
-  <si>
-    <t>Memory not implemented yet.</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>See section 8.2</t>
+  </si>
+  <si>
+    <t>This feature was abandoned because the AI reveals pieces so infrequently that reducing the likelihood would make the feature almost non-existent.  More about this in "dittmar_final_report.doc".</t>
   </si>
 </sst>
 </file>
@@ -206,7 +200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,19 +232,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -565,21 +562,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" thickTop="1" thickBot="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -588,10 +585,10 @@
       <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -600,10 +597,10 @@
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -612,46 +609,46 @@
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>3.1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>3.2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6"/>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>3.3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="6"/>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -660,34 +657,34 @@
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="C9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>4.2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -696,82 +693,82 @@
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="6"/>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>5.2</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6"/>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>5.3</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>5.4</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>5.5</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="6"/>
+      <c r="C16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>5.6</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="6"/>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -780,10 +777,10 @@
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -792,92 +789,86 @@
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A20" s="4">
+      <c r="A20" s="9">
         <v>8</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>39</v>
+      <c r="D20" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>8.1</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="106.5" thickTop="1" thickBot="1">
+      <c r="A22" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A22" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>38</v>
+      <c r="D22" s="12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>9</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>37</v>
-      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>9.1</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="6"/>
+      <c r="C24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>36</v>
-      </c>
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" ht="21.75" thickTop="1" thickBot="1">
-      <c r="A26" s="10">
+      <c r="A26" s="7">
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -886,67 +877,67 @@
       <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>10.1</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="6"/>
+      <c r="C27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="6"/>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>10.3</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="6"/>
+      <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>10.4</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="6"/>
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>10.5</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="6"/>
+      <c r="C31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" thickTop="1"/>
   </sheetData>
